--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>128.1970521770033</v>
+        <v>133.5730691061433</v>
       </c>
       <c r="R2">
-        <v>1153.77346959303</v>
+        <v>1202.15762195529</v>
       </c>
       <c r="S2">
-        <v>0.6006309471365646</v>
+        <v>0.6042111069796038</v>
       </c>
       <c r="T2">
-        <v>0.6006309471365646</v>
+        <v>0.6042111069796039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
         <v>13.62035675630422</v>
@@ -632,10 +632,10 @@
         <v>122.583210806738</v>
       </c>
       <c r="S3">
-        <v>0.0638143205319695</v>
+        <v>0.06161100353727818</v>
       </c>
       <c r="T3">
-        <v>0.0638143205319695</v>
+        <v>0.06161100353727818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>8.511299480305109</v>
+        <v>8.511299480305111</v>
       </c>
       <c r="R4">
-        <v>76.601695322746</v>
+        <v>76.60169532274601</v>
       </c>
       <c r="S4">
-        <v>0.03987728096243739</v>
+        <v>0.03850043811408955</v>
       </c>
       <c r="T4">
-        <v>0.03987728096243739</v>
+        <v>0.03850043811408956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N5">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O5">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P5">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q5">
-        <v>53.817640418295</v>
+        <v>56.07451404418499</v>
       </c>
       <c r="R5">
-        <v>484.358763764655</v>
+        <v>504.6706263976649</v>
       </c>
       <c r="S5">
-        <v>0.252147298148983</v>
+        <v>0.2536502637148891</v>
       </c>
       <c r="T5">
-        <v>0.2521472981489829</v>
+        <v>0.2536502637148891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P6">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q6">
         <v>5.717880792356999</v>
@@ -818,10 +818,10 @@
         <v>51.46092713121298</v>
       </c>
       <c r="S6">
-        <v>0.02678950956832862</v>
+        <v>0.02586454819258579</v>
       </c>
       <c r="T6">
-        <v>0.02678950956832862</v>
+        <v>0.02586454819258579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N7">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q7">
-        <v>3.573077907368999</v>
+        <v>3.573077907369</v>
       </c>
       <c r="R7">
-        <v>32.15770116632099</v>
+        <v>32.157701166321</v>
       </c>
       <c r="S7">
-        <v>0.01674064365171694</v>
+        <v>0.01616263946155369</v>
       </c>
       <c r="T7">
-        <v>0.01674064365171694</v>
+        <v>0.01616263946155369</v>
       </c>
     </row>
   </sheetData>
